--- a/Data/login_data.xlsx
+++ b/Data/login_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Username</t>
   </si>
@@ -27,21 +27,6 @@
     <t>LoginName</t>
   </si>
   <si>
-    <t>Administrator</t>
-  </si>
-  <si>
-    <t>P@ssw0rd</t>
-  </si>
-  <si>
-    <t>xxx</t>
-  </si>
-  <si>
-    <t>xxxxx</t>
-  </si>
-  <si>
-    <t>xxxxxx</t>
-  </si>
-  <si>
     <t>123@sta.com</t>
   </si>
   <si>
@@ -58,6 +43,15 @@
   </si>
   <si>
     <t>EmailAddress</t>
+  </si>
+  <si>
+    <t>m.sakr@live.co.uk</t>
+  </si>
+  <si>
+    <t>isma3ily</t>
+  </si>
+  <si>
+    <t>Mohamed Sakr</t>
   </si>
 </sst>
 </file>
@@ -436,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,44 +453,22 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
+      <c r="A2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="B5" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -506,7 +478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -518,7 +490,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -526,10 +498,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -557,18 +529,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Data/login_data.xlsx
+++ b/Data/login_data.xlsx
@@ -18,9 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
-    <t>Username</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>Mohamed Sakr</t>
+  </si>
+  <si>
+    <t>Email_Address</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,24 +443,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -490,18 +490,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -529,18 +529,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
